--- a/inputcons/BD.xlsx
+++ b/inputcons/BD.xlsx
@@ -28389,7 +28389,7 @@
     </row>
     <row r="530" spans="1:16">
       <c r="A530" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B530" t="s">
         <v>45</v>
@@ -28639,7 +28639,7 @@
     </row>
     <row r="535" spans="1:16">
       <c r="A535" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B535" t="s">
         <v>45</v>
@@ -28789,7 +28789,7 @@
     </row>
     <row r="538" spans="1:16">
       <c r="A538" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B538" t="s">
         <v>45</v>

--- a/inputcons/BD.xlsx
+++ b/inputcons/BD.xlsx
@@ -64,13 +64,13 @@
     <t>Quantité Relative</t>
   </si>
   <si>
-    <t>Drink</t>
-  </si>
-  <si>
-    <t>Eat</t>
-  </si>
-  <si>
-    <t>Smoke</t>
+    <t>DRINK</t>
+  </si>
+  <si>
+    <t>EAT</t>
+  </si>
+  <si>
+    <t>SMOKE</t>
   </si>
   <si>
     <t>SOFTS</t>

--- a/inputcons/BD.xlsx
+++ b/inputcons/BD.xlsx
@@ -64,13 +64,13 @@
     <t>Quantité Relative</t>
   </si>
   <si>
-    <t>DRINK</t>
-  </si>
-  <si>
-    <t>EAT</t>
-  </si>
-  <si>
-    <t>SMOKE</t>
+    <t>Drink</t>
+  </si>
+  <si>
+    <t>Eat</t>
+  </si>
+  <si>
+    <t>Smoke</t>
   </si>
   <si>
     <t>SOFTS</t>
